--- a/server/public/templates/Household_template.xlsx
+++ b/server/public/templates/Household_template.xlsx
@@ -4,26 +4,94 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="F1">
+      <text>
+        <t xml:space="preserve">Di isi dengan nomor KK jika Status kepemilikan rumah adalah numpang alamat
+	-Ikhsan Muhammad</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D1">
+      <text>
+        <t xml:space="preserve">Di isi jika Status KK adalah tidak aktif
+	-Ikhsan Muhammad</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B1">
+      <text>
+        <t xml:space="preserve">Harus sesuai dengan data Alamat yang ada
+	-Ikhsan Muhammad</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Nomor KK</t>
   </si>
   <si>
-    <t>Alamat</t>
+    <t>Alamat Lengkap</t>
+  </si>
+  <si>
+    <t>Status KK</t>
+  </si>
+  <si>
+    <t>Keterangan Tidak Aktif</t>
+  </si>
+  <si>
+    <t>Status Kepemilikan Rumah</t>
+  </si>
+  <si>
+    <t>Menumpang pada KK:</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>2501098347</t>
+  </si>
+  <si>
+    <t>R1 no. 1</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>250424003</t>
+  </si>
+  <si>
+    <t>R1 no. 2</t>
+  </si>
+  <si>
+    <t>R1 no. 3</t>
+  </si>
+  <si>
+    <t>0802111090</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -37,8 +105,17 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -51,19 +128,119 @@
         <bgColor rgb="FFFFE599"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf quotePrefix="1" borderId="3" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf quotePrefix="1" borderId="4" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -74,6 +251,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -281,7 +462,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.13"/>
+    <col customWidth="1" min="1" max="1" width="22.0"/>
+    <col customWidth="1" min="2" max="2" width="42.13"/>
+    <col customWidth="1" min="4" max="4" width="25.13"/>
+    <col customWidth="1" min="5" max="5" width="26.75"/>
+    <col customWidth="1" min="6" max="6" width="22.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -291,6 +476,1883 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="2"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="2"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="2"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="2"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="2"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="2"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="2"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="2"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="2"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="2"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="2"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="2"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="2"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="2"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="2"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="2"/>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="2"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="2"/>
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
+      <c r="F189" s="2"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="2"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="2"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="2"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="2"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="2"/>
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="2"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="2"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="2"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="2"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="2"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="2"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+    </row>
+  </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C200">
+      <formula1>"aktif,tidak aktif"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E200">
+      <formula1>"pemilik,sewa,numpang alamat,kost"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3">
+        <v>31.0</v>
+      </c>
+      <c r="B1" s="4">
+        <v>75.0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="str">
+        <f t="shared" ref="E1:E24" si="1">CONCATENATE(A1,B1,C1,D1)</f>
+        <v>3175072501098347</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>317507250424003</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9">
+        <v>31.0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>75.0</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="9">
+        <v>2.501098422E9</v>
+      </c>
+      <c r="E3" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>3175072501098422</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>31.0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>75.0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="10">
+        <v>3.01190006E8</v>
+      </c>
+      <c r="E4" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>317507301190006</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11">
+        <v>31.0</v>
+      </c>
+      <c r="B5" s="12">
+        <v>75.0</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="13">
+        <v>2.501090997E9</v>
+      </c>
+      <c r="E5" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>3175072501090997</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>31.0</v>
+      </c>
+      <c r="B6" s="4">
+        <v>75.0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>3175070802111090</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>31.0</v>
+      </c>
+      <c r="B7" s="4">
+        <v>75.0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="10">
+        <v>2.608131003E9</v>
+      </c>
+      <c r="E7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>3175072608131003</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="E8" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
